--- a/data/income_statement/3digits/total/234_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/234_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>234-Manufacture of other porcelain and ceramic products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>234-Manufacture of other porcelain and ceramic products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1283451.40261</v>
@@ -962,34 +868,39 @@
         <v>2314251.39337</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2573772.347899999</v>
+        <v>2573772.3479</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3038586.5065</v>
+        <v>3038886.06725</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3310582.5774</v>
+        <v>3320909.74824</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3622660.33541</v>
+        <v>3622660.335409999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4355635.57622</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5453891.385870001</v>
+        <v>5453918.401400001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6329482.1276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6353405.536470001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7159054.819</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>912921.14208</v>
+        <v>912921.1420799999</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>1228896.81486</v>
@@ -1007,7 +918,7 @@
         <v>2273753.09979</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2436100.02683</v>
+        <v>2445264.70103</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>2615157.27787</v>
@@ -1016,19 +927,24 @@
         <v>3030605.57534</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3510240.83359</v>
+        <v>3510267.099750001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4001222.7589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4021952.31224</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4509149.517</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>354115.4701800001</v>
+        <v>354115.47018</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>433791.26991</v>
@@ -1043,10 +959,10 @@
         <v>589772.29288</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>741560.65108</v>
+        <v>741860.2118299999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>844525.6190099999</v>
+        <v>845501.5530999999</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>969951.6190899999</v>
@@ -1058,13 +974,18 @@
         <v>1875733.59211</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2253732.28073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2256879.78636</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2578245.672</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>16414.79035</v>
@@ -1085,25 +1006,30 @@
         <v>23272.75563</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>29956.93155999999</v>
+        <v>30143.49411</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>37551.43845</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>48787.40702000001</v>
+        <v>48787.40702</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>67916.96017000001</v>
+        <v>67917.70954000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>74527.08796999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>74573.43787000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>71659.63</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>184795.88042</v>
@@ -1124,10 +1050,10 @@
         <v>532955.1175299999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>645282.6060800001</v>
+        <v>646341.71313</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>705949.5067900001</v>
+        <v>705949.50679</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>813939.85662</v>
@@ -1136,13 +1062,18 @@
         <v>905651.66587</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1140595.7634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1140949.34939</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1216194.781</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>20097.23609</v>
@@ -1163,7 +1094,7 @@
         <v>44139.93287</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>26482.07166</v>
+        <v>27537.00554</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>25467.43929</v>
@@ -1175,13 +1106,18 @@
         <v>51559.66027</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>125353.06778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>125670.72067</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>54784.371</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>149406.26626</v>
@@ -1205,7 +1141,7 @@
         <v>613594.44413</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>676726.4469499999</v>
+        <v>676726.44695</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>771317.42062</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>997184.27061</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1149367.576</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>15292.37807</v>
@@ -1238,10 +1179,10 @@
         <v>9272.147419999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6458.412359999999</v>
+        <v>6458.41236</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5206.090289999999</v>
+        <v>5210.26346</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>3755.62055</v>
@@ -1253,13 +1194,18 @@
         <v>12456.99068</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>18058.42501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18094.35811</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>12042.834</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1098655.52219</v>
@@ -1277,10 +1223,10 @@
         <v>2185199.90986</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2505631.38897</v>
+        <v>2505930.94972</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2665299.97132</v>
+        <v>2674568.03511</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>2916710.82862</v>
@@ -1289,22 +1235,27 @@
         <v>3541695.7196</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4548239.72</v>
+        <v>4548266.73553</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5188886.3642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5212456.18708</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5942860.038</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>740059.1962900001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>992427.8337300001</v>
+        <v>992427.83373</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>1282660.56186</v>
@@ -1316,10 +1267,10 @@
         <v>1441676.1637</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1711938.89836</v>
+        <v>1712029.36103</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1787284.88259</v>
+        <v>1796097.846</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>1971927.31565</v>
@@ -1328,16 +1279,21 @@
         <v>2349565.61738</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2937392.75332</v>
+        <v>2937416.099810001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3437588.571870001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3459266.25628</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3995969.003</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>627223.4244700001</v>
@@ -1355,10 +1311,10 @@
         <v>1160498.62038</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1325668.98093</v>
+        <v>1325759.4436</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1489587.20899</v>
+        <v>1496400.06719</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1680406.21023</v>
@@ -1370,13 +1326,18 @@
         <v>2516803.56173</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2961662.2041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2981479.05587</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3546638.708</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>82193.09668999999</v>
@@ -1397,7 +1358,7 @@
         <v>233220.18544</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>204977.66045</v>
+        <v>206977.76566</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>180467.19399</v>
@@ -1406,16 +1367,21 @@
         <v>221149.9106</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>262060.20406</v>
+        <v>262083.55055</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>261892.32743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>263730.64453</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>336764.476</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>28686.75232</v>
@@ -1448,13 +1414,18 @@
         <v>146443.20747</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>204119.54382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>204142.05936</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>101605.822</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1955.92281</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>9914.496519999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>10959.997</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>358596.3259</v>
+        <v>358596.3258999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>429471.07597</v>
+        <v>429471.0759699999</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>604952.87685</v>
@@ -1508,31 +1484,36 @@
         <v>579843.32753</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>743523.74616</v>
+        <v>743523.7461600001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>793692.49061</v>
+        <v>793901.5886899999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>878015.0887300001</v>
+        <v>878470.18911</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>944783.51297</v>
+        <v>944783.5129700002</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1192130.10222</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1610846.96668</v>
+        <v>1610850.63572</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1751297.79233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1753189.9308</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1946891.035</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>281699.10467</v>
@@ -1544,34 +1525,39 @@
         <v>425162.62344</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>460928.5890100001</v>
+        <v>460928.58901</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>509810.74031</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>550178.4281899999</v>
+        <v>550204.74097</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>587756.5929500001</v>
+        <v>589035.2893300001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>620137.9410899999</v>
+        <v>620137.94109</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>719761.6005999999</v>
+        <v>719761.6006</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>884622.9047000001</v>
+        <v>885477.17907</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1027376.09652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1030081.48296</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1140702.167</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>11525.27723</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>30411.76231</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>32891.986</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>167948.81176</v>
@@ -1622,34 +1613,39 @@
         <v>274655.13492</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>306990.3465400001</v>
+        <v>306990.34654</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>343287.19908</v>
+        <v>343287.1990799999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>368664.7652800001</v>
+        <v>368664.76528</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>386110.55138</v>
+        <v>386229.83287</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>391192.70381</v>
+        <v>391192.7038099999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>462299.90282</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>582133.0585500001</v>
+        <v>582133.05855</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>669794.3480000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>670720.41123</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>735557.199</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>102225.01568</v>
@@ -1667,10 +1663,10 @@
         <v>149871.49489</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>164695.60228</v>
+        <v>164721.91506</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>183645.36173</v>
+        <v>184804.77662</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>208514.43172</v>
@@ -1679,22 +1675,27 @@
         <v>226198.77614</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>276501.42191</v>
+        <v>277355.69628</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>327169.98621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>328949.30942</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>372252.982</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>76897.22123</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>78192.11496000001</v>
+        <v>78192.11495999999</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>179790.25341</v>
@@ -1706,10 +1707,10 @@
         <v>233713.00585</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>243514.06242</v>
+        <v>243696.84772</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>290258.49578</v>
+        <v>289434.89978</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>324645.57188</v>
@@ -1718,19 +1719,24 @@
         <v>472368.50162</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>726224.06198</v>
+        <v>725373.4566500001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>723921.6958100001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>723108.44784</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>806188.868</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>85358.72465999999</v>
+        <v>85358.72466000001</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>112198.28496</v>
@@ -1748,7 +1754,7 @@
         <v>133787.15502</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>187013.44514</v>
+        <v>188102.18973</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>131515.56076</v>
@@ -1757,16 +1763,21 @@
         <v>197939.99053</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>470971.21958</v>
+        <v>472703.01982</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>321416.8326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>322957.32167</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>564680.539</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1796,16 +1807,21 @@
         <v>1061.13805</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>1061.13805</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>17363.03863</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3358.11389</v>
@@ -1853,7 +1874,7 @@
         <v>1778.26329</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2138.906179999999</v>
+        <v>2138.90618</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>3116.23439</v>
@@ -1865,25 +1886,30 @@
         <v>2803.81375</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5416.95262</v>
+        <v>5497.875980000001</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>4907.60063</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>9350.536300000002</v>
+        <v>9350.5363</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>18047.55438</v>
+        <v>18064.30587</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>21725.64602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>21946.62394</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>32628.529</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.03383</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>749.5406999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>372.186</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1659.09188</v>
@@ -1943,7 +1974,7 @@
         <v>3333.14816</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3591.681729999999</v>
+        <v>3591.68173</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>3452.42854</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>9974.132710000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>11075.76</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>135.86881</v>
@@ -1996,20 +2032,25 @@
       <c r="M31" s="48" t="n">
         <v>1154.19774</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1677.704</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>61160.36635000001</v>
+        <v>61160.36635</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>90739.26296000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>95951.29228000002</v>
+        <v>95951.29227999999</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>85261.74671000001</v>
@@ -2021,7 +2062,7 @@
         <v>83924.43988999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>120091.12256</v>
+        <v>120531.67197</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>67152.29806</v>
@@ -2030,16 +2071,21 @@
         <v>124709.46454</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>356345.6242600001</v>
+        <v>356995.53496</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>182526.19475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>183827.30674</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>451741.679</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2212.83308</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>35996.95437</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>35485.514</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.082</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>16828.33482</v>
@@ -2132,31 +2188,36 @@
         <v>31936.69648</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>24768.52557000001</v>
+        <v>24768.52557</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>23576.08265</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>36453.64014000001</v>
+        <v>37020.91196</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>35795.00072</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>34644.7607</v>
+        <v>34644.76070000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>47115.43203</v>
+        <v>47119.43203</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>51927.12768</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>51945.52684000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>31699.167</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>37861.54732</v>
@@ -2168,16 +2229,16 @@
         <v>49629.65955</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>52166.20732000001</v>
+        <v>52166.20732</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>111616.24877</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>95681.51148999999</v>
+        <v>95681.51149</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>150783.36753</v>
+        <v>150895.67541</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>131685.17771</v>
@@ -2186,16 +2247,21 @@
         <v>132608.39746</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>386882.33519</v>
+        <v>387016.51795</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>262633.0444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>264511.07303</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>409977.031</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1015.43587</v>
@@ -2216,7 +2282,7 @@
         <v>995.2771899999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>993.73037</v>
+        <v>993.7303699999999</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1515.69435</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>1157.34702</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1329.747</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>10793.09747</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>38557.01245</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>18024.136</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>20864.75058</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>34704.41902</v>
+        <v>34704.41901999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>37674.91946</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>38626.97090000001</v>
+        <v>38626.9709</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>85307.03870999999</v>
+        <v>85307.03871000001</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>52415.70139</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>107664.39107</v>
+        <v>107776.69895</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>79409.51013000001</v>
+        <v>79409.51013</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>85184.92601000001</v>
+        <v>85184.92601</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>293920.92052</v>
+        <v>294055.10328</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>152568.05505</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>154446.00972</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>317709.246</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>706.09737</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>36932.77085</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>31679.03</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.56975</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>4481.59628</v>
+        <v>4481.596280000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>4411.62474</v>
@@ -2441,7 +2537,7 @@
         <v>2876.82646</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5025.49025</v>
+        <v>5025.490249999999</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>6655.73741</v>
@@ -2462,16 +2558,21 @@
         <v>18677.14443</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>33417.85903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>33417.93299</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>41234.872</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>84314.07860000001</v>
+        <v>84314.07859999999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>81995.31895999999</v>
@@ -2486,10 +2587,10 @@
         <v>199107.8704</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>79178.91355</v>
+        <v>79178.91355000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>151345.43114</v>
+        <v>151425.52303</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>129225.04054</v>
@@ -2498,16 +2599,21 @@
         <v>214019.39798</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>365284.3850600001</v>
+        <v>365326.77176</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>255329.65032</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>255927.8069</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>477927.187</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>67011.33377</v>
@@ -2528,7 +2634,7 @@
         <v>49030.45248000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>99816.76476000001</v>
+        <v>99896.85665</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>91452.37091999999</v>
@@ -2537,16 +2643,21 @@
         <v>145713.64463</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>227443.52306</v>
+        <v>227485.90976</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>178611.14284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>179167.54959</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>335147.577</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>17302.74483</v>
@@ -2555,10 +2666,10 @@
         <v>33302.7272</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>92055.90837999999</v>
+        <v>92055.90838000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>35867.84329</v>
+        <v>35867.84328999999</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>87275.01441</v>
@@ -2570,7 +2681,7 @@
         <v>51528.66638</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>37772.66962</v>
+        <v>37772.66962000001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>68305.75335</v>
@@ -2579,13 +2690,18 @@
         <v>137840.862</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>76718.50748000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>76760.25731</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>142779.61</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>40080.31997</v>
@@ -2603,10 +2719,10 @@
         <v>101903.03147</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>202440.7924</v>
+        <v>202623.5777</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>175143.14225</v>
+        <v>175215.89107</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>195250.91439</v>
@@ -2615,16 +2731,21 @@
         <v>323680.69671</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>445028.56131</v>
+        <v>445733.18676</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>527375.83369</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>525626.88958</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>482965.189</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>8155.1285</v>
@@ -2645,7 +2766,7 @@
         <v>62889.40846</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>23429.51273</v>
+        <v>23441.16014</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>15376.8167</v>
@@ -2654,16 +2775,21 @@
         <v>53411.88907</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>19736.07801</v>
+        <v>19737.57802</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>54457.34505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>54534.57334999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>51304.918</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>683.98185</v>
@@ -2693,16 +2819,21 @@
         <v>446.89628</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>806.02142</v>
+        <v>806.02143</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2689.14313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2689.36313</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>337.42</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>7471.146650000001</v>
@@ -2723,7 +2854,7 @@
         <v>62511.50353</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>23343.73267</v>
+        <v>23355.38008</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>15165.45014</v>
@@ -2732,16 +2863,21 @@
         <v>52964.99279</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>18930.05659</v>
+        <v>18931.55659</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>51768.20192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>51845.21022</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>50967.498</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>16119.53489</v>
@@ -2762,25 +2898,30 @@
         <v>31842.179</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>33943.83107</v>
+        <v>33972.28606</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>40729.9102</v>
+        <v>40729.91020000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>49513.09233</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>95267.39193</v>
+        <v>95344.30612000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>56066.06288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>56158.39653</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>54022.602</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3643.42669</v>
@@ -2795,10 +2936,10 @@
         <v>4778.1506</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>9830.84683</v>
+        <v>9830.846829999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4138.122780000001</v>
+        <v>4138.12278</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>13182.28061</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>6046.422570000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>5645.759</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>879.5931499999999</v>
@@ -2849,16 +2995,21 @@
         <v>2528.59395</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4867.92836</v>
+        <v>4867.928359999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10521.11735</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>10534.13649</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3917.314</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11596.51505</v>
@@ -2879,31 +3030,36 @@
         <v>26044.5553</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>18396.87052</v>
+        <v>18425.32551</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>33334.46532</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>46188.69865</v>
+        <v>46188.69865000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>86761.02162999999</v>
+        <v>86837.93582000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>39498.52296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>39577.83747</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>44459.529</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>32115.91358</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>43970.55860000001</v>
+        <v>43970.5586</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>22966.94872</v>
@@ -2915,10 +3071,10 @@
         <v>181911.05107</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>233488.02186</v>
+        <v>233670.80716</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>164628.82391</v>
+        <v>164684.76515</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>169897.82089</v>
@@ -2927,16 +3083,21 @@
         <v>327579.49345</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>369497.24739</v>
+        <v>370126.4586599999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>525767.1158599999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>524003.0664</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>480247.505</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>11715.21994</v>
@@ -2954,10 +3115,10 @@
         <v>15598.61508</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>26784.35177</v>
+        <v>26786.90903</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>20628.28423</v>
+        <v>20652.06472</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>26264.2502</v>
@@ -2966,16 +3127,21 @@
         <v>39227.3035</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>52879.06096</v>
+        <v>52937.88947</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>77432.32349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>77436.17176000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>47045.332</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>20400.69364</v>
@@ -2984,7 +3150,7 @@
         <v>30620.35801</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>3797.76178</v>
+        <v>3797.761779999998</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>110583.77394</v>
@@ -2993,10 +3159,10 @@
         <v>166312.43599</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>206703.67009</v>
+        <v>206883.89813</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>144000.53968</v>
+        <v>144032.70043</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>143633.57069</v>
@@ -3005,13 +3171,16 @@
         <v>288352.18995</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>316618.1864299999</v>
+        <v>317188.56919</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>448334.79237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>446566.8946400001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>433202.173</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>288</v>
@@ -3047,10 +3219,10 @@
         <v>273</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>264</v>
@@ -3059,13 +3231,16 @@
         <v>273</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>297</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>